--- a/medicine/Mort/Cimetière_de_la_Pie_de_Saint-Maur-des-Fossés/Cimetière_de_la_Pie_de_Saint-Maur-des-Fossés.xlsx
+++ b/medicine/Mort/Cimetière_de_la_Pie_de_Saint-Maur-des-Fossés/Cimetière_de_la_Pie_de_Saint-Maur-des-Fossés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Pie_de_Saint-Maur-des-Foss%C3%A9s</t>
+          <t>Cimetière_de_la_Pie_de_Saint-Maur-des-Fossés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de la Pie est l'un des quatre cimetières municipaux de la ville de Saint-Maur-des-Fossés (Val-de-Marne) en banlieue parisienne. C'est le plus récent. Il se trouve boulevard du Général-Giraud.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Pie_de_Saint-Maur-des-Foss%C3%A9s</t>
+          <t>Cimetière_de_la_Pie_de_Saint-Maur-des-Fossés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce vaste cimetière ouvert à la fin des années 1920 est organisé en vingt-deux divisions et annexes séparées par des allées à angle droit. Aucune des tombes ne présente d'intérêt artistique. On remarque une copie moderne de la Pietà de Michel-Ange sur l'une des concessions. Il a été vandalisé en 2008[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce vaste cimetière ouvert à la fin des années 1920 est organisé en vingt-deux divisions et annexes séparées par des allées à angle droit. Aucune des tombes ne présente d'intérêt artistique. On remarque une copie moderne de la Pietà de Michel-Ange sur l'une des concessions. Il a été vandalisé en 2008.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Pie_de_Saint-Maur-des-Foss%C3%A9s</t>
+          <t>Cimetière_de_la_Pie_de_Saint-Maur-des-Fossés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jane Chacun (née Jeanne Blanzat, épouse Balez, 1908-1980), « reine du musette »[2] ;
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jane Chacun (née Jeanne Blanzat, épouse Balez, 1908-1980), « reine du musette » ;
 Patrick Grandperret (1946-2019), réalisateur de cinéma ;
 Fernand Sastre (1932-1998), président de la Fédération française de football.</t>
         </is>
